--- a/excel_files/micro-sample_MANUAL_Mar17.xlsx
+++ b/excel_files/micro-sample_MANUAL_Mar17.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anhnguyen/Desktop/research/scraping_Python/excel_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -4985,10 +4993,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
@@ -5005,7 +5013,7 @@
     <col min="13" max="13" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18">
+    <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5044,7 +5052,7 @@
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="18">
+    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -5069,7 +5077,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="18">
+    <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -5094,7 +5102,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="18">
+    <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -5119,7 +5127,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="18">
+    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -5144,7 +5152,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" ht="18">
+    <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -5169,7 +5177,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="18">
+    <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -5194,7 +5202,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="18">
+    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -5219,7 +5227,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="18">
+    <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
@@ -5244,7 +5252,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="18">
+    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
@@ -5269,7 +5277,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="18">
+    <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
@@ -5294,7 +5302,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="18">
+    <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
@@ -5319,7 +5327,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="18">
+    <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
@@ -5344,7 +5352,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="18">
+    <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
@@ -5369,7 +5377,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="18">
+    <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>71</v>
       </c>
@@ -5394,7 +5402,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="18">
+    <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -5419,7 +5427,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" ht="18">
+    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>80</v>
       </c>
@@ -5444,7 +5452,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" ht="18">
+    <row r="18" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>85</v>
       </c>
@@ -5469,7 +5477,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" ht="18">
+    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
@@ -5494,7 +5502,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" ht="18">
+    <row r="20" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>95</v>
       </c>
@@ -5519,7 +5527,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" ht="18">
+    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>100</v>
       </c>
@@ -5544,7 +5552,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" ht="18">
+    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>105</v>
       </c>
@@ -5569,7 +5577,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" ht="18">
+    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>110</v>
       </c>
@@ -5594,7 +5602,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:13" ht="18">
+    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>115</v>
       </c>
@@ -5619,7 +5627,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" ht="18">
+    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>120</v>
       </c>
@@ -5644,7 +5652,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:13" ht="18">
+    <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>125</v>
       </c>
@@ -5669,7 +5677,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" ht="18">
+    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>130</v>
       </c>
@@ -5694,7 +5702,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" ht="18">
+    <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>135</v>
       </c>
@@ -5719,7 +5727,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" ht="18">
+    <row r="29" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>140</v>
       </c>
@@ -5744,7 +5752,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" ht="18">
+    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>145</v>
       </c>
@@ -5769,7 +5777,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" ht="18">
+    <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>150</v>
       </c>
@@ -5794,7 +5802,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:13" ht="18">
+    <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>155</v>
       </c>
@@ -5819,7 +5827,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:13" ht="18">
+    <row r="33" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>159</v>
       </c>
@@ -5844,7 +5852,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" ht="18">
+    <row r="34" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>164</v>
       </c>
@@ -5869,7 +5877,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" ht="18">
+    <row r="35" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>169</v>
       </c>
@@ -5894,7 +5902,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" ht="18">
+    <row r="36" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>174</v>
       </c>
@@ -5919,7 +5927,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="1:13" ht="18">
+    <row r="37" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>179</v>
       </c>
@@ -5944,7 +5952,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" ht="18">
+    <row r="38" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>184</v>
       </c>
@@ -5969,7 +5977,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" ht="18">
+    <row r="39" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>188</v>
       </c>
@@ -5994,7 +6002,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" ht="18">
+    <row r="40" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>193</v>
       </c>
@@ -6019,7 +6027,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13" ht="18">
+    <row r="41" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>198</v>
       </c>
@@ -6044,7 +6052,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13" ht="18">
+    <row r="42" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>203</v>
       </c>
@@ -6069,7 +6077,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:13" ht="18">
+    <row r="43" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>208</v>
       </c>
@@ -6094,7 +6102,7 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:13" ht="18">
+    <row r="44" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>213</v>
       </c>
@@ -6119,7 +6127,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="18">
+    <row r="45" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>218</v>
       </c>
@@ -6144,7 +6152,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" ht="18">
+    <row r="46" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>223</v>
       </c>
@@ -6169,7 +6177,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" ht="18">
+    <row r="47" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>228</v>
       </c>
@@ -6194,7 +6202,7 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:13" ht="18">
+    <row r="48" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>233</v>
       </c>
@@ -6219,7 +6227,7 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
-    <row r="49" spans="1:13" ht="18">
+    <row r="49" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>238</v>
       </c>
@@ -6244,7 +6252,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
     </row>
-    <row r="50" spans="1:13" ht="18">
+    <row r="50" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>243</v>
       </c>
@@ -6269,7 +6277,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
     </row>
-    <row r="51" spans="1:13" ht="18">
+    <row r="51" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>248</v>
       </c>
@@ -6294,7 +6302,7 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
     </row>
-    <row r="52" spans="1:13" ht="18">
+    <row r="52" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>253</v>
       </c>
@@ -6319,7 +6327,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" spans="1:13" ht="18">
+    <row r="53" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>258</v>
       </c>
@@ -6344,7 +6352,7 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" spans="1:13" ht="18">
+    <row r="54" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>263</v>
       </c>
@@ -6369,7 +6377,7 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
     </row>
-    <row r="55" spans="1:13" ht="18">
+    <row r="55" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>268</v>
       </c>
@@ -6394,7 +6402,7 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
     </row>
-    <row r="56" spans="1:13" ht="18">
+    <row r="56" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>273</v>
       </c>
@@ -6419,7 +6427,7 @@
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
     </row>
-    <row r="57" spans="1:13" ht="18">
+    <row r="57" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>278</v>
       </c>
@@ -6444,7 +6452,7 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
     </row>
-    <row r="58" spans="1:13" ht="18">
+    <row r="58" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>283</v>
       </c>
@@ -6469,7 +6477,7 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
     </row>
-    <row r="59" spans="1:13" ht="18">
+    <row r="59" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>288</v>
       </c>
@@ -6494,7 +6502,7 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
-    <row r="60" spans="1:13" ht="18">
+    <row r="60" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>293</v>
       </c>
@@ -6519,7 +6527,7 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
     </row>
-    <row r="61" spans="1:13" ht="18">
+    <row r="61" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>298</v>
       </c>
@@ -6544,7 +6552,7 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
     </row>
-    <row r="62" spans="1:13" ht="18">
+    <row r="62" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>303</v>
       </c>
@@ -6569,7 +6577,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="1:13" ht="18">
+    <row r="63" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>308</v>
       </c>
@@ -6594,7 +6602,7 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
     </row>
-    <row r="64" spans="1:13" ht="18">
+    <row r="64" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>313</v>
       </c>
@@ -6619,7 +6627,7 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
     </row>
-    <row r="65" spans="1:13" ht="18">
+    <row r="65" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>318</v>
       </c>
@@ -6644,7 +6652,7 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
     </row>
-    <row r="66" spans="1:13" ht="18">
+    <row r="66" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>323</v>
       </c>
@@ -6669,7 +6677,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
     </row>
-    <row r="67" spans="1:13" ht="18">
+    <row r="67" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>328</v>
       </c>
@@ -6694,7 +6702,7 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
     </row>
-    <row r="68" spans="1:13" ht="18">
+    <row r="68" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>333</v>
       </c>
@@ -6719,7 +6727,7 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
     </row>
-    <row r="69" spans="1:13" ht="18">
+    <row r="69" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>338</v>
       </c>
@@ -6744,7 +6752,7 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
     </row>
-    <row r="70" spans="1:13" ht="18">
+    <row r="70" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>343</v>
       </c>
@@ -6769,7 +6777,7 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
     </row>
-    <row r="71" spans="1:13" ht="18">
+    <row r="71" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>348</v>
       </c>
@@ -6794,7 +6802,7 @@
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
     </row>
-    <row r="72" spans="1:13" ht="18">
+    <row r="72" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>353</v>
       </c>
@@ -6819,7 +6827,7 @@
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
     </row>
-    <row r="73" spans="1:13" ht="18">
+    <row r="73" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>358</v>
       </c>
@@ -6844,7 +6852,7 @@
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
     </row>
-    <row r="74" spans="1:13" ht="18">
+    <row r="74" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>362</v>
       </c>
@@ -6869,7 +6877,7 @@
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
     </row>
-    <row r="75" spans="1:13" ht="18">
+    <row r="75" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>367</v>
       </c>
@@ -6894,7 +6902,7 @@
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
     </row>
-    <row r="76" spans="1:13" ht="18">
+    <row r="76" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>372</v>
       </c>
@@ -6919,7 +6927,7 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
     </row>
-    <row r="77" spans="1:13" ht="18">
+    <row r="77" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>377</v>
       </c>
@@ -6944,7 +6952,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="1:13" ht="18">
+    <row r="78" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>382</v>
       </c>
@@ -6969,7 +6977,7 @@
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
     </row>
-    <row r="79" spans="1:13" ht="18">
+    <row r="79" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>387</v>
       </c>
@@ -6994,7 +7002,7 @@
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
     </row>
-    <row r="80" spans="1:13" ht="18">
+    <row r="80" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>392</v>
       </c>
@@ -7019,7 +7027,7 @@
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
     </row>
-    <row r="81" spans="1:13" ht="18">
+    <row r="81" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>397</v>
       </c>
@@ -7044,7 +7052,7 @@
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
     </row>
-    <row r="82" spans="1:13" ht="18">
+    <row r="82" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>402</v>
       </c>
@@ -7069,7 +7077,7 @@
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
     </row>
-    <row r="83" spans="1:13" ht="18">
+    <row r="83" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>407</v>
       </c>
@@ -7094,7 +7102,7 @@
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
     </row>
-    <row r="84" spans="1:13" ht="18">
+    <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>412</v>
       </c>
@@ -7119,7 +7127,7 @@
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
     </row>
-    <row r="85" spans="1:13" ht="18">
+    <row r="85" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>417</v>
       </c>
@@ -7144,7 +7152,7 @@
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
     </row>
-    <row r="86" spans="1:13" ht="18">
+    <row r="86" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>422</v>
       </c>
@@ -7169,7 +7177,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
     </row>
-    <row r="87" spans="1:13" ht="18">
+    <row r="87" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>426</v>
       </c>
@@ -7194,7 +7202,7 @@
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
     </row>
-    <row r="88" spans="1:13" ht="18">
+    <row r="88" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>431</v>
       </c>
@@ -7219,7 +7227,7 @@
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
     </row>
-    <row r="89" spans="1:13" ht="18">
+    <row r="89" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>436</v>
       </c>
@@ -7244,7 +7252,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="1:13" ht="18">
+    <row r="90" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>441</v>
       </c>
@@ -7269,7 +7277,7 @@
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
     </row>
-    <row r="91" spans="1:13" ht="18">
+    <row r="91" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>446</v>
       </c>
@@ -7294,7 +7302,7 @@
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
     </row>
-    <row r="92" spans="1:13" ht="18">
+    <row r="92" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>451</v>
       </c>
@@ -7319,7 +7327,7 @@
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
     </row>
-    <row r="93" spans="1:13" ht="18">
+    <row r="93" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>456</v>
       </c>
@@ -7344,7 +7352,7 @@
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
     </row>
-    <row r="94" spans="1:13" ht="18">
+    <row r="94" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>461</v>
       </c>
@@ -7369,7 +7377,7 @@
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
     </row>
-    <row r="95" spans="1:13" ht="18">
+    <row r="95" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>466</v>
       </c>
@@ -7394,7 +7402,7 @@
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
     </row>
-    <row r="96" spans="1:13" ht="18">
+    <row r="96" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>471</v>
       </c>
@@ -7419,7 +7427,7 @@
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
     </row>
-    <row r="97" spans="1:13" ht="18">
+    <row r="97" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>476</v>
       </c>
@@ -7444,7 +7452,7 @@
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
     </row>
-    <row r="98" spans="1:13" ht="18">
+    <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>481</v>
       </c>
@@ -7469,7 +7477,7 @@
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
     </row>
-    <row r="99" spans="1:13" ht="18">
+    <row r="99" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>486</v>
       </c>
@@ -7494,7 +7502,7 @@
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
     </row>
-    <row r="100" spans="1:13" ht="18">
+    <row r="100" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>491</v>
       </c>
@@ -7519,7 +7527,7 @@
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
     </row>
-    <row r="101" spans="1:13" ht="18">
+    <row r="101" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>496</v>
       </c>
@@ -7544,7 +7552,7 @@
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
     </row>
-    <row r="102" spans="1:13" ht="18">
+    <row r="102" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>501</v>
       </c>
@@ -7569,7 +7577,7 @@
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
     </row>
-    <row r="103" spans="1:13" ht="18">
+    <row r="103" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>506</v>
       </c>
@@ -7594,7 +7602,7 @@
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
     </row>
-    <row r="104" spans="1:13" ht="18">
+    <row r="104" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>511</v>
       </c>
@@ -7619,7 +7627,7 @@
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
     </row>
-    <row r="105" spans="1:13" ht="18">
+    <row r="105" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>516</v>
       </c>
@@ -7644,7 +7652,7 @@
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
     </row>
-    <row r="106" spans="1:13" ht="18">
+    <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>521</v>
       </c>
@@ -7669,7 +7677,7 @@
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
     </row>
-    <row r="107" spans="1:13" ht="18">
+    <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>526</v>
       </c>
@@ -7694,7 +7702,7 @@
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
     </row>
-    <row r="108" spans="1:13" ht="18">
+    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>531</v>
       </c>
@@ -7719,7 +7727,7 @@
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
     </row>
-    <row r="109" spans="1:13" ht="18">
+    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>536</v>
       </c>
@@ -7744,7 +7752,7 @@
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
     </row>
-    <row r="110" spans="1:13" ht="18">
+    <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>541</v>
       </c>
@@ -7769,7 +7777,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
     </row>
-    <row r="111" spans="1:13" ht="18">
+    <row r="111" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>546</v>
       </c>
@@ -7794,7 +7802,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
     </row>
-    <row r="112" spans="1:13" ht="18">
+    <row r="112" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>551</v>
       </c>
@@ -7819,7 +7827,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
     </row>
-    <row r="113" spans="1:13" ht="18">
+    <row r="113" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>556</v>
       </c>
@@ -7844,7 +7852,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
     </row>
-    <row r="114" spans="1:13" ht="18">
+    <row r="114" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>561</v>
       </c>
@@ -7869,7 +7877,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
     </row>
-    <row r="115" spans="1:13" ht="18">
+    <row r="115" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>566</v>
       </c>
@@ -7894,7 +7902,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
     </row>
-    <row r="116" spans="1:13" ht="18">
+    <row r="116" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>571</v>
       </c>
@@ -7919,7 +7927,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
     </row>
-    <row r="117" spans="1:13" ht="18">
+    <row r="117" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>576</v>
       </c>
@@ -7944,7 +7952,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
     </row>
-    <row r="118" spans="1:13" ht="18">
+    <row r="118" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>581</v>
       </c>
@@ -7969,7 +7977,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
     </row>
-    <row r="119" spans="1:13" ht="18">
+    <row r="119" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>586</v>
       </c>
@@ -7994,7 +8002,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
     </row>
-    <row r="120" spans="1:13" ht="18">
+    <row r="120" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>590</v>
       </c>
@@ -8019,7 +8027,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
     </row>
-    <row r="121" spans="1:13" ht="18">
+    <row r="121" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>595</v>
       </c>
@@ -8044,7 +8052,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
     </row>
-    <row r="122" spans="1:13" ht="18">
+    <row r="122" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>600</v>
       </c>
@@ -8069,7 +8077,7 @@
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
     </row>
-    <row r="123" spans="1:13" ht="18">
+    <row r="123" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>605</v>
       </c>
@@ -8094,7 +8102,7 @@
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
     </row>
-    <row r="124" spans="1:13" ht="18">
+    <row r="124" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>610</v>
       </c>
@@ -8119,7 +8127,7 @@
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
     </row>
-    <row r="125" spans="1:13" ht="18">
+    <row r="125" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>615</v>
       </c>
@@ -8144,7 +8152,7 @@
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
     </row>
-    <row r="126" spans="1:13" ht="18">
+    <row r="126" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>620</v>
       </c>
@@ -8169,7 +8177,7 @@
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
     </row>
-    <row r="127" spans="1:13" ht="18">
+    <row r="127" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>625</v>
       </c>
@@ -8194,7 +8202,7 @@
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
     </row>
-    <row r="128" spans="1:13" ht="18">
+    <row r="128" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>630</v>
       </c>
@@ -8219,7 +8227,7 @@
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
     </row>
-    <row r="129" spans="1:13" ht="18">
+    <row r="129" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>635</v>
       </c>
@@ -8244,7 +8252,7 @@
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
     </row>
-    <row r="130" spans="1:13" ht="18">
+    <row r="130" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>640</v>
       </c>
@@ -8269,7 +8277,7 @@
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
     </row>
-    <row r="131" spans="1:13" ht="18">
+    <row r="131" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>645</v>
       </c>
@@ -8294,7 +8302,7 @@
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
     </row>
-    <row r="132" spans="1:13" ht="18">
+    <row r="132" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>650</v>
       </c>
@@ -8319,7 +8327,7 @@
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
     </row>
-    <row r="133" spans="1:13" ht="18">
+    <row r="133" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>655</v>
       </c>
@@ -8344,7 +8352,7 @@
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
     </row>
-    <row r="134" spans="1:13" ht="18">
+    <row r="134" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>660</v>
       </c>
@@ -8369,7 +8377,7 @@
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
     </row>
-    <row r="135" spans="1:13" ht="18">
+    <row r="135" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>665</v>
       </c>
@@ -8394,7 +8402,7 @@
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
     </row>
-    <row r="136" spans="1:13" ht="18">
+    <row r="136" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>670</v>
       </c>
@@ -8419,7 +8427,7 @@
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
     </row>
-    <row r="137" spans="1:13" ht="18">
+    <row r="137" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>675</v>
       </c>
@@ -8444,7 +8452,7 @@
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
     </row>
-    <row r="138" spans="1:13" ht="18">
+    <row r="138" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>680</v>
       </c>
@@ -8469,7 +8477,7 @@
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
     </row>
-    <row r="139" spans="1:13" ht="18">
+    <row r="139" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>685</v>
       </c>
@@ -8494,7 +8502,7 @@
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
     </row>
-    <row r="140" spans="1:13" ht="18">
+    <row r="140" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>690</v>
       </c>
@@ -8519,7 +8527,7 @@
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
     </row>
-    <row r="141" spans="1:13" ht="18">
+    <row r="141" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>694</v>
       </c>
@@ -8544,7 +8552,7 @@
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
     </row>
-    <row r="142" spans="1:13" ht="18">
+    <row r="142" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>699</v>
       </c>
@@ -8569,7 +8577,7 @@
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
     </row>
-    <row r="143" spans="1:13" ht="18">
+    <row r="143" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>704</v>
       </c>
@@ -8594,7 +8602,7 @@
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
     </row>
-    <row r="144" spans="1:13" ht="18">
+    <row r="144" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>709</v>
       </c>
@@ -8619,7 +8627,7 @@
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
     </row>
-    <row r="145" spans="1:13" ht="18">
+    <row r="145" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>714</v>
       </c>
@@ -8644,7 +8652,7 @@
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
     </row>
-    <row r="146" spans="1:13" ht="18">
+    <row r="146" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>719</v>
       </c>
@@ -8669,7 +8677,7 @@
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
     </row>
-    <row r="147" spans="1:13" ht="18">
+    <row r="147" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>724</v>
       </c>
@@ -8694,7 +8702,7 @@
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
     </row>
-    <row r="148" spans="1:13" ht="18">
+    <row r="148" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>729</v>
       </c>
@@ -8719,7 +8727,7 @@
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
     </row>
-    <row r="149" spans="1:13" ht="18">
+    <row r="149" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>734</v>
       </c>
@@ -8744,7 +8752,7 @@
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
     </row>
-    <row r="150" spans="1:13" ht="18">
+    <row r="150" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>739</v>
       </c>
@@ -8769,7 +8777,7 @@
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
     </row>
-    <row r="151" spans="1:13" ht="18">
+    <row r="151" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>744</v>
       </c>
@@ -8794,7 +8802,7 @@
       <c r="L151" s="5"/>
       <c r="M151" s="5"/>
     </row>
-    <row r="152" spans="1:13" ht="18">
+    <row r="152" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>749</v>
       </c>
@@ -8819,7 +8827,7 @@
       <c r="L152" s="5"/>
       <c r="M152" s="5"/>
     </row>
-    <row r="153" spans="1:13" ht="18">
+    <row r="153" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>754</v>
       </c>
@@ -8844,7 +8852,7 @@
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
     </row>
-    <row r="154" spans="1:13" ht="18">
+    <row r="154" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>759</v>
       </c>
@@ -8869,7 +8877,7 @@
       <c r="L154" s="5"/>
       <c r="M154" s="5"/>
     </row>
-    <row r="155" spans="1:13" ht="18">
+    <row r="155" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>764</v>
       </c>
@@ -8894,7 +8902,7 @@
       <c r="L155" s="5"/>
       <c r="M155" s="5"/>
     </row>
-    <row r="156" spans="1:13" ht="18">
+    <row r="156" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>769</v>
       </c>
@@ -8919,7 +8927,7 @@
       <c r="L156" s="5"/>
       <c r="M156" s="5"/>
     </row>
-    <row r="157" spans="1:13" ht="18">
+    <row r="157" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>774</v>
       </c>
@@ -8944,7 +8952,7 @@
       <c r="L157" s="5"/>
       <c r="M157" s="5"/>
     </row>
-    <row r="158" spans="1:13" ht="18">
+    <row r="158" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>779</v>
       </c>
@@ -8969,7 +8977,7 @@
       <c r="L158" s="5"/>
       <c r="M158" s="5"/>
     </row>
-    <row r="159" spans="1:13" ht="18">
+    <row r="159" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>784</v>
       </c>
@@ -8994,7 +9002,7 @@
       <c r="L159" s="5"/>
       <c r="M159" s="5"/>
     </row>
-    <row r="160" spans="1:13" ht="18">
+    <row r="160" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>789</v>
       </c>
@@ -9019,7 +9027,7 @@
       <c r="L160" s="5"/>
       <c r="M160" s="5"/>
     </row>
-    <row r="161" spans="1:13" ht="18">
+    <row r="161" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>794</v>
       </c>
@@ -9044,7 +9052,7 @@
       <c r="L161" s="5"/>
       <c r="M161" s="5"/>
     </row>
-    <row r="162" spans="1:13" ht="18">
+    <row r="162" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>799</v>
       </c>
@@ -9069,7 +9077,7 @@
       <c r="L162" s="5"/>
       <c r="M162" s="5"/>
     </row>
-    <row r="163" spans="1:13" ht="18">
+    <row r="163" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>804</v>
       </c>
@@ -9094,7 +9102,7 @@
       <c r="L163" s="5"/>
       <c r="M163" s="5"/>
     </row>
-    <row r="164" spans="1:13" ht="18">
+    <row r="164" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>809</v>
       </c>
@@ -9119,7 +9127,7 @@
       <c r="L164" s="5"/>
       <c r="M164" s="5"/>
     </row>
-    <row r="165" spans="1:13" ht="18">
+    <row r="165" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>814</v>
       </c>
@@ -9144,7 +9152,7 @@
       <c r="L165" s="5"/>
       <c r="M165" s="5"/>
     </row>
-    <row r="166" spans="1:13" ht="18">
+    <row r="166" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>819</v>
       </c>
@@ -9169,7 +9177,7 @@
       <c r="L166" s="5"/>
       <c r="M166" s="5"/>
     </row>
-    <row r="167" spans="1:13" ht="18">
+    <row r="167" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>824</v>
       </c>
@@ -9194,7 +9202,7 @@
       <c r="L167" s="5"/>
       <c r="M167" s="5"/>
     </row>
-    <row r="168" spans="1:13" ht="18">
+    <row r="168" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>829</v>
       </c>
@@ -9219,7 +9227,7 @@
       <c r="L168" s="5"/>
       <c r="M168" s="5"/>
     </row>
-    <row r="169" spans="1:13" ht="18">
+    <row r="169" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>834</v>
       </c>
@@ -9244,7 +9252,7 @@
       <c r="L169" s="5"/>
       <c r="M169" s="5"/>
     </row>
-    <row r="170" spans="1:13" ht="18">
+    <row r="170" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>839</v>
       </c>
@@ -9269,7 +9277,7 @@
       <c r="L170" s="5"/>
       <c r="M170" s="5"/>
     </row>
-    <row r="171" spans="1:13" ht="18">
+    <row r="171" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>844</v>
       </c>
@@ -9294,7 +9302,7 @@
       <c r="L171" s="5"/>
       <c r="M171" s="5"/>
     </row>
-    <row r="172" spans="1:13" ht="18">
+    <row r="172" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>849</v>
       </c>
@@ -9319,7 +9327,7 @@
       <c r="L172" s="5"/>
       <c r="M172" s="5"/>
     </row>
-    <row r="173" spans="1:13" ht="18">
+    <row r="173" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>854</v>
       </c>
@@ -9344,7 +9352,7 @@
       <c r="L173" s="5"/>
       <c r="M173" s="5"/>
     </row>
-    <row r="174" spans="1:13" ht="18">
+    <row r="174" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>859</v>
       </c>
@@ -9369,7 +9377,7 @@
       <c r="L174" s="5"/>
       <c r="M174" s="5"/>
     </row>
-    <row r="175" spans="1:13" ht="18">
+    <row r="175" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>864</v>
       </c>
@@ -9394,7 +9402,7 @@
       <c r="L175" s="5"/>
       <c r="M175" s="5"/>
     </row>
-    <row r="176" spans="1:13" ht="18">
+    <row r="176" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>869</v>
       </c>
@@ -9419,7 +9427,7 @@
       <c r="L176" s="5"/>
       <c r="M176" s="5"/>
     </row>
-    <row r="177" spans="1:13" ht="18">
+    <row r="177" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>874</v>
       </c>
@@ -9444,7 +9452,7 @@
       <c r="L177" s="5"/>
       <c r="M177" s="5"/>
     </row>
-    <row r="178" spans="1:13" ht="18">
+    <row r="178" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>879</v>
       </c>
@@ -9469,7 +9477,7 @@
       <c r="L178" s="5"/>
       <c r="M178" s="5"/>
     </row>
-    <row r="179" spans="1:13" ht="18">
+    <row r="179" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>884</v>
       </c>
@@ -9494,7 +9502,7 @@
       <c r="L179" s="5"/>
       <c r="M179" s="5"/>
     </row>
-    <row r="180" spans="1:13" ht="18">
+    <row r="180" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>889</v>
       </c>
@@ -9519,7 +9527,7 @@
       <c r="L180" s="5"/>
       <c r="M180" s="5"/>
     </row>
-    <row r="181" spans="1:13" ht="18">
+    <row r="181" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>894</v>
       </c>
@@ -9544,7 +9552,7 @@
       <c r="L181" s="5"/>
       <c r="M181" s="5"/>
     </row>
-    <row r="182" spans="1:13" ht="18">
+    <row r="182" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>899</v>
       </c>
@@ -9569,7 +9577,7 @@
       <c r="L182" s="5"/>
       <c r="M182" s="5"/>
     </row>
-    <row r="183" spans="1:13" ht="18">
+    <row r="183" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>904</v>
       </c>
@@ -9594,7 +9602,7 @@
       <c r="L183" s="5"/>
       <c r="M183" s="5"/>
     </row>
-    <row r="184" spans="1:13" ht="18">
+    <row r="184" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>909</v>
       </c>
@@ -9619,7 +9627,7 @@
       <c r="L184" s="5"/>
       <c r="M184" s="5"/>
     </row>
-    <row r="185" spans="1:13" ht="18">
+    <row r="185" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>914</v>
       </c>
@@ -9644,7 +9652,7 @@
       <c r="L185" s="5"/>
       <c r="M185" s="5"/>
     </row>
-    <row r="186" spans="1:13" ht="18">
+    <row r="186" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>919</v>
       </c>
@@ -9669,7 +9677,7 @@
       <c r="L186" s="5"/>
       <c r="M186" s="5"/>
     </row>
-    <row r="187" spans="1:13" ht="18">
+    <row r="187" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>924</v>
       </c>
@@ -9694,7 +9702,7 @@
       <c r="L187" s="5"/>
       <c r="M187" s="5"/>
     </row>
-    <row r="188" spans="1:13" ht="18">
+    <row r="188" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>929</v>
       </c>
@@ -9719,7 +9727,7 @@
       <c r="L188" s="5"/>
       <c r="M188" s="5"/>
     </row>
-    <row r="189" spans="1:13" ht="18">
+    <row r="189" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>934</v>
       </c>
@@ -9744,7 +9752,7 @@
       <c r="L189" s="5"/>
       <c r="M189" s="5"/>
     </row>
-    <row r="190" spans="1:13" ht="18">
+    <row r="190" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>939</v>
       </c>
@@ -9769,7 +9777,7 @@
       <c r="L190" s="5"/>
       <c r="M190" s="5"/>
     </row>
-    <row r="191" spans="1:13" ht="18">
+    <row r="191" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>944</v>
       </c>
@@ -9794,7 +9802,7 @@
       <c r="L191" s="5"/>
       <c r="M191" s="5"/>
     </row>
-    <row r="192" spans="1:13" ht="18">
+    <row r="192" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>948</v>
       </c>
@@ -9819,7 +9827,7 @@
       <c r="L192" s="5"/>
       <c r="M192" s="5"/>
     </row>
-    <row r="193" spans="1:13" ht="18">
+    <row r="193" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>952</v>
       </c>
@@ -9844,7 +9852,7 @@
       <c r="L193" s="5"/>
       <c r="M193" s="5"/>
     </row>
-    <row r="194" spans="1:13" ht="18">
+    <row r="194" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>957</v>
       </c>
@@ -9869,7 +9877,7 @@
       <c r="L194" s="5"/>
       <c r="M194" s="5"/>
     </row>
-    <row r="195" spans="1:13" ht="18">
+    <row r="195" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>961</v>
       </c>
@@ -9894,7 +9902,7 @@
       <c r="L195" s="5"/>
       <c r="M195" s="5"/>
     </row>
-    <row r="196" spans="1:13" ht="18">
+    <row r="196" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>966</v>
       </c>
@@ -9919,7 +9927,7 @@
       <c r="L196" s="5"/>
       <c r="M196" s="5"/>
     </row>
-    <row r="197" spans="1:13" ht="18">
+    <row r="197" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>971</v>
       </c>
@@ -9944,7 +9952,7 @@
       <c r="L197" s="5"/>
       <c r="M197" s="5"/>
     </row>
-    <row r="198" spans="1:13" ht="18">
+    <row r="198" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>976</v>
       </c>
@@ -9969,7 +9977,7 @@
       <c r="L198" s="5"/>
       <c r="M198" s="5"/>
     </row>
-    <row r="199" spans="1:13" ht="18">
+    <row r="199" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>981</v>
       </c>
@@ -9994,7 +10002,7 @@
       <c r="L199" s="5"/>
       <c r="M199" s="5"/>
     </row>
-    <row r="200" spans="1:13" ht="18">
+    <row r="200" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>986</v>
       </c>
@@ -10019,7 +10027,7 @@
       <c r="L200" s="5"/>
       <c r="M200" s="5"/>
     </row>
-    <row r="201" spans="1:13" ht="18">
+    <row r="201" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>991</v>
       </c>
@@ -10044,7 +10052,7 @@
       <c r="L201" s="5"/>
       <c r="M201" s="5"/>
     </row>
-    <row r="202" spans="1:13" ht="18">
+    <row r="202" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>996</v>
       </c>
@@ -10069,7 +10077,7 @@
       <c r="L202" s="5"/>
       <c r="M202" s="5"/>
     </row>
-    <row r="203" spans="1:13" ht="18">
+    <row r="203" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>1001</v>
       </c>
@@ -10094,7 +10102,7 @@
       <c r="L203" s="5"/>
       <c r="M203" s="5"/>
     </row>
-    <row r="204" spans="1:13" ht="18">
+    <row r="204" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>1006</v>
       </c>
@@ -10119,7 +10127,7 @@
       <c r="L204" s="5"/>
       <c r="M204" s="5"/>
     </row>
-    <row r="205" spans="1:13" ht="18">
+    <row r="205" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>1011</v>
       </c>
@@ -10144,7 +10152,7 @@
       <c r="L205" s="5"/>
       <c r="M205" s="5"/>
     </row>
-    <row r="206" spans="1:13" ht="18">
+    <row r="206" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>1016</v>
       </c>
@@ -10169,7 +10177,7 @@
       <c r="L206" s="5"/>
       <c r="M206" s="5"/>
     </row>
-    <row r="207" spans="1:13" ht="18">
+    <row r="207" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>1021</v>
       </c>
@@ -10194,7 +10202,7 @@
       <c r="L207" s="5"/>
       <c r="M207" s="5"/>
     </row>
-    <row r="208" spans="1:13" ht="18">
+    <row r="208" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>1026</v>
       </c>
@@ -10219,7 +10227,7 @@
       <c r="L208" s="5"/>
       <c r="M208" s="5"/>
     </row>
-    <row r="209" spans="1:13" ht="18">
+    <row r="209" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>1031</v>
       </c>
@@ -10244,7 +10252,7 @@
       <c r="L209" s="5"/>
       <c r="M209" s="5"/>
     </row>
-    <row r="210" spans="1:13" ht="18">
+    <row r="210" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>1036</v>
       </c>
@@ -10269,7 +10277,7 @@
       <c r="L210" s="5"/>
       <c r="M210" s="5"/>
     </row>
-    <row r="211" spans="1:13" ht="18">
+    <row r="211" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>1041</v>
       </c>
@@ -10294,7 +10302,7 @@
       <c r="L211" s="5"/>
       <c r="M211" s="5"/>
     </row>
-    <row r="212" spans="1:13" ht="18">
+    <row r="212" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>1046</v>
       </c>
@@ -10319,7 +10327,7 @@
       <c r="L212" s="5"/>
       <c r="M212" s="5"/>
     </row>
-    <row r="213" spans="1:13" ht="18">
+    <row r="213" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>1051</v>
       </c>
@@ -10344,7 +10352,7 @@
       <c r="L213" s="5"/>
       <c r="M213" s="5"/>
     </row>
-    <row r="214" spans="1:13" ht="18">
+    <row r="214" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>1056</v>
       </c>
@@ -10369,7 +10377,7 @@
       <c r="L214" s="5"/>
       <c r="M214" s="5"/>
     </row>
-    <row r="215" spans="1:13" ht="18">
+    <row r="215" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>1061</v>
       </c>
@@ -10394,7 +10402,7 @@
       <c r="L215" s="5"/>
       <c r="M215" s="5"/>
     </row>
-    <row r="216" spans="1:13" ht="18">
+    <row r="216" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>1066</v>
       </c>
@@ -10419,7 +10427,7 @@
       <c r="L216" s="5"/>
       <c r="M216" s="5"/>
     </row>
-    <row r="217" spans="1:13" ht="18">
+    <row r="217" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>1071</v>
       </c>
@@ -10444,7 +10452,7 @@
       <c r="L217" s="5"/>
       <c r="M217" s="5"/>
     </row>
-    <row r="218" spans="1:13" ht="18">
+    <row r="218" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>1076</v>
       </c>
@@ -10469,7 +10477,7 @@
       <c r="L218" s="5"/>
       <c r="M218" s="5"/>
     </row>
-    <row r="219" spans="1:13" ht="18">
+    <row r="219" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>1081</v>
       </c>
@@ -10494,7 +10502,7 @@
       <c r="L219" s="5"/>
       <c r="M219" s="5"/>
     </row>
-    <row r="220" spans="1:13" ht="18">
+    <row r="220" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>1086</v>
       </c>
@@ -10519,7 +10527,7 @@
       <c r="L220" s="5"/>
       <c r="M220" s="5"/>
     </row>
-    <row r="221" spans="1:13" ht="18">
+    <row r="221" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>1091</v>
       </c>
@@ -10544,7 +10552,7 @@
       <c r="L221" s="5"/>
       <c r="M221" s="5"/>
     </row>
-    <row r="222" spans="1:13" ht="18">
+    <row r="222" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>1096</v>
       </c>
@@ -10569,7 +10577,7 @@
       <c r="L222" s="5"/>
       <c r="M222" s="5"/>
     </row>
-    <row r="223" spans="1:13" ht="18">
+    <row r="223" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>1101</v>
       </c>
@@ -10594,7 +10602,7 @@
       <c r="L223" s="5"/>
       <c r="M223" s="5"/>
     </row>
-    <row r="224" spans="1:13" ht="18">
+    <row r="224" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>1106</v>
       </c>
@@ -10619,7 +10627,7 @@
       <c r="L224" s="5"/>
       <c r="M224" s="5"/>
     </row>
-    <row r="225" spans="1:13" ht="18">
+    <row r="225" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>1111</v>
       </c>
@@ -10644,7 +10652,7 @@
       <c r="L225" s="5"/>
       <c r="M225" s="5"/>
     </row>
-    <row r="226" spans="1:13" ht="18">
+    <row r="226" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>1116</v>
       </c>
@@ -10669,7 +10677,7 @@
       <c r="L226" s="5"/>
       <c r="M226" s="5"/>
     </row>
-    <row r="227" spans="1:13" ht="18">
+    <row r="227" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>1121</v>
       </c>
@@ -10694,7 +10702,7 @@
       <c r="L227" s="5"/>
       <c r="M227" s="5"/>
     </row>
-    <row r="228" spans="1:13" ht="18">
+    <row r="228" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>1126</v>
       </c>
@@ -10719,7 +10727,7 @@
       <c r="L228" s="5"/>
       <c r="M228" s="5"/>
     </row>
-    <row r="229" spans="1:13" ht="18">
+    <row r="229" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>1131</v>
       </c>
@@ -10744,7 +10752,7 @@
       <c r="L229" s="5"/>
       <c r="M229" s="5"/>
     </row>
-    <row r="230" spans="1:13" ht="18">
+    <row r="230" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>1136</v>
       </c>
@@ -10769,7 +10777,7 @@
       <c r="L230" s="5"/>
       <c r="M230" s="5"/>
     </row>
-    <row r="231" spans="1:13" ht="18">
+    <row r="231" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>1141</v>
       </c>
@@ -10794,7 +10802,7 @@
       <c r="L231" s="5"/>
       <c r="M231" s="5"/>
     </row>
-    <row r="232" spans="1:13" ht="18">
+    <row r="232" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>1146</v>
       </c>
@@ -10819,7 +10827,7 @@
       <c r="L232" s="5"/>
       <c r="M232" s="5"/>
     </row>
-    <row r="233" spans="1:13" ht="18">
+    <row r="233" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>1151</v>
       </c>
@@ -10844,7 +10852,7 @@
       <c r="L233" s="5"/>
       <c r="M233" s="5"/>
     </row>
-    <row r="234" spans="1:13" ht="18">
+    <row r="234" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>1156</v>
       </c>
@@ -10869,7 +10877,7 @@
       <c r="L234" s="5"/>
       <c r="M234" s="5"/>
     </row>
-    <row r="235" spans="1:13" ht="18">
+    <row r="235" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>1161</v>
       </c>
@@ -10894,7 +10902,7 @@
       <c r="L235" s="5"/>
       <c r="M235" s="5"/>
     </row>
-    <row r="236" spans="1:13" ht="18">
+    <row r="236" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>1166</v>
       </c>
@@ -10919,7 +10927,7 @@
       <c r="L236" s="5"/>
       <c r="M236" s="5"/>
     </row>
-    <row r="237" spans="1:13" ht="18">
+    <row r="237" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>1171</v>
       </c>
@@ -10944,7 +10952,7 @@
       <c r="L237" s="5"/>
       <c r="M237" s="5"/>
     </row>
-    <row r="238" spans="1:13" ht="18">
+    <row r="238" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>1175</v>
       </c>
@@ -10969,7 +10977,7 @@
       <c r="L238" s="5"/>
       <c r="M238" s="5"/>
     </row>
-    <row r="239" spans="1:13" ht="18">
+    <row r="239" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>1180</v>
       </c>
@@ -10994,7 +11002,7 @@
       <c r="L239" s="5"/>
       <c r="M239" s="5"/>
     </row>
-    <row r="240" spans="1:13" ht="18">
+    <row r="240" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>1185</v>
       </c>
@@ -11019,7 +11027,7 @@
       <c r="L240" s="5"/>
       <c r="M240" s="5"/>
     </row>
-    <row r="241" spans="1:13" ht="18">
+    <row r="241" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>1190</v>
       </c>
@@ -11044,7 +11052,7 @@
       <c r="L241" s="5"/>
       <c r="M241" s="5"/>
     </row>
-    <row r="242" spans="1:13" ht="18">
+    <row r="242" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>1195</v>
       </c>
@@ -11069,7 +11077,7 @@
       <c r="L242" s="5"/>
       <c r="M242" s="5"/>
     </row>
-    <row r="243" spans="1:13" ht="18">
+    <row r="243" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>1200</v>
       </c>
@@ -11094,7 +11102,7 @@
       <c r="L243" s="5"/>
       <c r="M243" s="5"/>
     </row>
-    <row r="244" spans="1:13" ht="18">
+    <row r="244" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>1205</v>
       </c>
@@ -11119,7 +11127,7 @@
       <c r="L244" s="5"/>
       <c r="M244" s="5"/>
     </row>
-    <row r="245" spans="1:13" ht="18">
+    <row r="245" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>1210</v>
       </c>
@@ -11144,7 +11152,7 @@
       <c r="L245" s="5"/>
       <c r="M245" s="5"/>
     </row>
-    <row r="246" spans="1:13" ht="18">
+    <row r="246" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>1215</v>
       </c>
@@ -11169,7 +11177,7 @@
       <c r="L246" s="5"/>
       <c r="M246" s="5"/>
     </row>
-    <row r="247" spans="1:13" ht="18">
+    <row r="247" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>1220</v>
       </c>
@@ -11194,7 +11202,7 @@
       <c r="L247" s="5"/>
       <c r="M247" s="5"/>
     </row>
-    <row r="248" spans="1:13" ht="18">
+    <row r="248" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>1225</v>
       </c>
@@ -11219,7 +11227,7 @@
       <c r="L248" s="5"/>
       <c r="M248" s="5"/>
     </row>
-    <row r="249" spans="1:13" ht="18">
+    <row r="249" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>1230</v>
       </c>
@@ -11244,7 +11252,7 @@
       <c r="L249" s="5"/>
       <c r="M249" s="5"/>
     </row>
-    <row r="250" spans="1:13" ht="18">
+    <row r="250" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>1235</v>
       </c>
@@ -11269,7 +11277,7 @@
       <c r="L250" s="5"/>
       <c r="M250" s="5"/>
     </row>
-    <row r="251" spans="1:13" ht="18">
+    <row r="251" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>1240</v>
       </c>
@@ -11294,7 +11302,7 @@
       <c r="L251" s="5"/>
       <c r="M251" s="5"/>
     </row>
-    <row r="252" spans="1:13" ht="18">
+    <row r="252" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>1245</v>
       </c>
@@ -11319,7 +11327,7 @@
       <c r="L252" s="5"/>
       <c r="M252" s="5"/>
     </row>
-    <row r="253" spans="1:13" ht="18">
+    <row r="253" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>1250</v>
       </c>
@@ -11344,7 +11352,7 @@
       <c r="L253" s="5"/>
       <c r="M253" s="5"/>
     </row>
-    <row r="254" spans="1:13" ht="18">
+    <row r="254" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>1255</v>
       </c>
@@ -11369,7 +11377,7 @@
       <c r="L254" s="5"/>
       <c r="M254" s="5"/>
     </row>
-    <row r="255" spans="1:13" ht="18">
+    <row r="255" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>1260</v>
       </c>
@@ -11394,7 +11402,7 @@
       <c r="L255" s="5"/>
       <c r="M255" s="5"/>
     </row>
-    <row r="256" spans="1:13" ht="18">
+    <row r="256" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>1265</v>
       </c>
@@ -11419,7 +11427,7 @@
       <c r="L256" s="5"/>
       <c r="M256" s="5"/>
     </row>
-    <row r="257" spans="1:13" ht="18">
+    <row r="257" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>1270</v>
       </c>
@@ -11444,7 +11452,7 @@
       <c r="L257" s="5"/>
       <c r="M257" s="5"/>
     </row>
-    <row r="258" spans="1:13" ht="18">
+    <row r="258" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>1275</v>
       </c>
@@ -11469,7 +11477,7 @@
       <c r="L258" s="5"/>
       <c r="M258" s="5"/>
     </row>
-    <row r="259" spans="1:13" ht="18">
+    <row r="259" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>1280</v>
       </c>
@@ -11494,7 +11502,7 @@
       <c r="L259" s="5"/>
       <c r="M259" s="5"/>
     </row>
-    <row r="260" spans="1:13" ht="18">
+    <row r="260" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>1285</v>
       </c>
@@ -11519,7 +11527,7 @@
       <c r="L260" s="5"/>
       <c r="M260" s="5"/>
     </row>
-    <row r="261" spans="1:13" ht="18">
+    <row r="261" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>1289</v>
       </c>
@@ -11544,7 +11552,7 @@
       <c r="L261" s="5"/>
       <c r="M261" s="5"/>
     </row>
-    <row r="262" spans="1:13" ht="18">
+    <row r="262" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>1294</v>
       </c>
@@ -11569,7 +11577,7 @@
       <c r="L262" s="5"/>
       <c r="M262" s="5"/>
     </row>
-    <row r="263" spans="1:13" ht="18">
+    <row r="263" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>1299</v>
       </c>
@@ -11594,7 +11602,7 @@
       <c r="L263" s="5"/>
       <c r="M263" s="5"/>
     </row>
-    <row r="264" spans="1:13" ht="18">
+    <row r="264" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>1304</v>
       </c>
@@ -11619,7 +11627,7 @@
       <c r="L264" s="5"/>
       <c r="M264" s="5"/>
     </row>
-    <row r="265" spans="1:13" ht="18">
+    <row r="265" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>1309</v>
       </c>
@@ -11644,7 +11652,7 @@
       <c r="L265" s="5"/>
       <c r="M265" s="5"/>
     </row>
-    <row r="266" spans="1:13" ht="18">
+    <row r="266" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>1314</v>
       </c>
@@ -11669,7 +11677,7 @@
       <c r="L266" s="5"/>
       <c r="M266" s="5"/>
     </row>
-    <row r="267" spans="1:13" ht="18">
+    <row r="267" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>1319</v>
       </c>
@@ -11694,7 +11702,7 @@
       <c r="L267" s="5"/>
       <c r="M267" s="5"/>
     </row>
-    <row r="268" spans="1:13" ht="18">
+    <row r="268" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>1324</v>
       </c>
@@ -11719,7 +11727,7 @@
       <c r="L268" s="5"/>
       <c r="M268" s="5"/>
     </row>
-    <row r="269" spans="1:13" ht="18">
+    <row r="269" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>1329</v>
       </c>
@@ -11744,7 +11752,7 @@
       <c r="L269" s="5"/>
       <c r="M269" s="5"/>
     </row>
-    <row r="270" spans="1:13" ht="18">
+    <row r="270" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>1334</v>
       </c>
@@ -11769,7 +11777,7 @@
       <c r="L270" s="5"/>
       <c r="M270" s="5"/>
     </row>
-    <row r="271" spans="1:13" ht="18">
+    <row r="271" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>1339</v>
       </c>
@@ -11794,7 +11802,7 @@
       <c r="L271" s="5"/>
       <c r="M271" s="5"/>
     </row>
-    <row r="272" spans="1:13" ht="18">
+    <row r="272" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>1343</v>
       </c>
@@ -11819,7 +11827,7 @@
       <c r="L272" s="5"/>
       <c r="M272" s="5"/>
     </row>
-    <row r="273" spans="1:13" ht="18">
+    <row r="273" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>1348</v>
       </c>
@@ -11844,7 +11852,7 @@
       <c r="L273" s="5"/>
       <c r="M273" s="5"/>
     </row>
-    <row r="274" spans="1:13" ht="18">
+    <row r="274" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>1353</v>
       </c>
@@ -11869,7 +11877,7 @@
       <c r="L274" s="5"/>
       <c r="M274" s="5"/>
     </row>
-    <row r="275" spans="1:13" ht="18">
+    <row r="275" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>1358</v>
       </c>
@@ -11894,7 +11902,7 @@
       <c r="L275" s="5"/>
       <c r="M275" s="5"/>
     </row>
-    <row r="276" spans="1:13" ht="18">
+    <row r="276" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>1363</v>
       </c>
@@ -11919,7 +11927,7 @@
       <c r="L276" s="5"/>
       <c r="M276" s="5"/>
     </row>
-    <row r="277" spans="1:13" ht="18">
+    <row r="277" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>1368</v>
       </c>
@@ -11944,7 +11952,7 @@
       <c r="L277" s="5"/>
       <c r="M277" s="5"/>
     </row>
-    <row r="278" spans="1:13" ht="18">
+    <row r="278" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>1373</v>
       </c>
@@ -11969,7 +11977,7 @@
       <c r="L278" s="5"/>
       <c r="M278" s="5"/>
     </row>
-    <row r="279" spans="1:13" ht="18">
+    <row r="279" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>1378</v>
       </c>
@@ -11994,7 +12002,7 @@
       <c r="L279" s="5"/>
       <c r="M279" s="5"/>
     </row>
-    <row r="280" spans="1:13" ht="18">
+    <row r="280" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>1383</v>
       </c>
@@ -12019,7 +12027,7 @@
       <c r="L280" s="5"/>
       <c r="M280" s="5"/>
     </row>
-    <row r="281" spans="1:13" ht="18">
+    <row r="281" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>1388</v>
       </c>
@@ -12044,7 +12052,7 @@
       <c r="L281" s="5"/>
       <c r="M281" s="5"/>
     </row>
-    <row r="282" spans="1:13" ht="18">
+    <row r="282" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>1393</v>
       </c>
@@ -12069,7 +12077,7 @@
       <c r="L282" s="5"/>
       <c r="M282" s="5"/>
     </row>
-    <row r="283" spans="1:13" ht="18">
+    <row r="283" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>1398</v>
       </c>
@@ -12094,7 +12102,7 @@
       <c r="L283" s="5"/>
       <c r="M283" s="5"/>
     </row>
-    <row r="284" spans="1:13" ht="18">
+    <row r="284" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>1403</v>
       </c>
@@ -12119,7 +12127,7 @@
       <c r="L284" s="5"/>
       <c r="M284" s="5"/>
     </row>
-    <row r="285" spans="1:13" ht="18">
+    <row r="285" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>1408</v>
       </c>
@@ -12144,7 +12152,7 @@
       <c r="L285" s="5"/>
       <c r="M285" s="5"/>
     </row>
-    <row r="286" spans="1:13" ht="18">
+    <row r="286" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>1413</v>
       </c>
@@ -12169,7 +12177,7 @@
       <c r="L286" s="5"/>
       <c r="M286" s="5"/>
     </row>
-    <row r="287" spans="1:13" ht="18">
+    <row r="287" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>1418</v>
       </c>
@@ -12194,7 +12202,7 @@
       <c r="L287" s="5"/>
       <c r="M287" s="5"/>
     </row>
-    <row r="288" spans="1:13" ht="18">
+    <row r="288" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>1423</v>
       </c>
@@ -12219,7 +12227,7 @@
       <c r="L288" s="5"/>
       <c r="M288" s="5"/>
     </row>
-    <row r="289" spans="1:13" ht="18">
+    <row r="289" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>1428</v>
       </c>
@@ -12244,7 +12252,7 @@
       <c r="L289" s="5"/>
       <c r="M289" s="5"/>
     </row>
-    <row r="290" spans="1:13" ht="18">
+    <row r="290" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>1433</v>
       </c>
@@ -12269,7 +12277,7 @@
       <c r="L290" s="5"/>
       <c r="M290" s="5"/>
     </row>
-    <row r="291" spans="1:13" ht="18">
+    <row r="291" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>1438</v>
       </c>
@@ -12294,7 +12302,7 @@
       <c r="L291" s="5"/>
       <c r="M291" s="5"/>
     </row>
-    <row r="292" spans="1:13" ht="18">
+    <row r="292" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>1443</v>
       </c>
@@ -12319,7 +12327,7 @@
       <c r="L292" s="5"/>
       <c r="M292" s="5"/>
     </row>
-    <row r="293" spans="1:13" ht="18">
+    <row r="293" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>1447</v>
       </c>
@@ -12344,7 +12352,7 @@
       <c r="L293" s="5"/>
       <c r="M293" s="5"/>
     </row>
-    <row r="294" spans="1:13" ht="18">
+    <row r="294" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>1452</v>
       </c>
@@ -12369,7 +12377,7 @@
       <c r="L294" s="5"/>
       <c r="M294" s="5"/>
     </row>
-    <row r="295" spans="1:13" ht="18">
+    <row r="295" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>1457</v>
       </c>
@@ -12394,7 +12402,7 @@
       <c r="L295" s="5"/>
       <c r="M295" s="5"/>
     </row>
-    <row r="296" spans="1:13" ht="18">
+    <row r="296" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>1462</v>
       </c>
@@ -12419,7 +12427,7 @@
       <c r="L296" s="5"/>
       <c r="M296" s="5"/>
     </row>
-    <row r="297" spans="1:13" ht="18">
+    <row r="297" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>1467</v>
       </c>
@@ -12444,7 +12452,7 @@
       <c r="L297" s="5"/>
       <c r="M297" s="5"/>
     </row>
-    <row r="298" spans="1:13" ht="18">
+    <row r="298" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>1472</v>
       </c>
@@ -12469,7 +12477,7 @@
       <c r="L298" s="5"/>
       <c r="M298" s="5"/>
     </row>
-    <row r="299" spans="1:13" ht="18">
+    <row r="299" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>1477</v>
       </c>
@@ -12494,7 +12502,7 @@
       <c r="L299" s="5"/>
       <c r="M299" s="5"/>
     </row>
-    <row r="300" spans="1:13" ht="18">
+    <row r="300" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>1482</v>
       </c>
@@ -12519,7 +12527,7 @@
       <c r="L300" s="5"/>
       <c r="M300" s="5"/>
     </row>
-    <row r="301" spans="1:13" ht="18">
+    <row r="301" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>1487</v>
       </c>
@@ -12844,10 +12852,5 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>